--- a/public/doc_xls_export/report_profile_direktur.xlsx
+++ b/public/doc_xls_export/report_profile_direktur.xlsx
@@ -634,258 +634,6 @@
         </is>
       </c>
     </row>
-    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c s="15" t="inlineStr">
-        <is>
-          <t>000000000000000000</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Drs. Endang Kusnadi, Apt., Mkes</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Drs</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>2013-11-11</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c s="15" t="inlineStr">
-        <is>
-          <t>000000000000000000</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Drs. Suratmono, MP</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Drs</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>2013-11-11</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c s="15" t="inlineStr">
-        <is>
-          <t>000000000000000000</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Ir. Tien Gartini, Mkes</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Ir</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>2013-11-11</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c s="15" t="inlineStr">
-        <is>
-          <t>000000000000000000</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Dra. Dewi Prawitasari, Apt., Mkes</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Dra</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>2013-11-11</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c s="15" t="inlineStr">
-        <is>
-          <t>000000000000000000</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Dra. Aziza Nuraini, Apt., MM</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>2013-11-11</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c s="15" t="inlineStr">
-        <is>
-          <t>000000000000000000</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Winiati Pudji Rahayu, Msi</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c s="14" t="inlineStr">
-        <is>
-          <t>2013-11-11</t>
-        </is>
-      </c>
-      <c s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
